--- a/src/main/resources/template/Production-PlanLv-Template.xlsx
+++ b/src/main/resources/template/Production-PlanLv-Template.xlsx
@@ -5,35 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\MGL_Plan_LV_Report_Latest\mgl-planlv-project\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Business Solution\Share\AutomateReport\batch\java\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1020" windowWidth="16170" windowHeight="7650" tabRatio="862" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4350" yWindow="1020" windowWidth="16170" windowHeight="7650" tabRatio="862" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MTL KBank HIP - Tele" sheetId="2" r:id="rId1"/>
     <sheet name="MTL KBank PA CB - Tele" sheetId="19" r:id="rId2"/>
     <sheet name="MTL KBank HRC - Tele" sheetId="31" r:id="rId3"/>
-    <sheet name="MTI KBank PA VP - Tele" sheetId="35" r:id="rId4"/>
-    <sheet name="MTI KBank SafetyCare - Tele" sheetId="20" r:id="rId5"/>
-    <sheet name="MTI KBank PA CB - Tele" sheetId="29" r:id="rId6"/>
-    <sheet name="MTI KBank POM PA CB - Tele" sheetId="30" r:id="rId7"/>
-    <sheet name="MSIG UOB - Tele" sheetId="3" r:id="rId8"/>
-    <sheet name="MTL Broker V-Club - Tele" sheetId="34" r:id="rId9"/>
-    <sheet name="MTL HIP Broker - OTO" sheetId="23" r:id="rId10"/>
-    <sheet name="MTL POM PA - OTO" sheetId="27" r:id="rId11"/>
-    <sheet name="MTL POM WIN - OTO" sheetId="28" r:id="rId12"/>
-    <sheet name="MSIG Happy Life - OTO" sheetId="25" r:id="rId13"/>
-    <sheet name="MSIG Broker POM - OTO" sheetId="26" r:id="rId14"/>
-    <sheet name="FWD TVD - OTO" sheetId="33" r:id="rId15"/>
+    <sheet name="MTL KBank Upper Mass - TELE" sheetId="36" r:id="rId4"/>
+    <sheet name="MTI KBank PA VP - Tele" sheetId="35" r:id="rId5"/>
+    <sheet name="MTI KBank SafetyCare - Tele" sheetId="20" r:id="rId6"/>
+    <sheet name="MTI KBank PA CB - Tele" sheetId="29" r:id="rId7"/>
+    <sheet name="MTI KBank POM PA CB - Tele" sheetId="30" r:id="rId8"/>
+    <sheet name="MSIG UOB - Tele" sheetId="3" r:id="rId9"/>
+    <sheet name="MTL Broker V-Club - Tele" sheetId="34" r:id="rId10"/>
+    <sheet name="MTL HIP Broker - OTO" sheetId="23" r:id="rId11"/>
+    <sheet name="MTL POM PA - OTO" sheetId="27" r:id="rId12"/>
+    <sheet name="MTL POM WIN - OTO" sheetId="28" r:id="rId13"/>
+    <sheet name="MSIG Happy Life - OTO" sheetId="25" r:id="rId14"/>
+    <sheet name="MSIG Broker POM - OTO" sheetId="26" r:id="rId15"/>
+    <sheet name="FWD TVD - OTO" sheetId="33" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="205">
   <si>
     <t>Main Insured</t>
   </si>
@@ -1230,6 +1231,9 @@
   </si>
   <si>
     <t>021PA1715M04</t>
+  </si>
+  <si>
+    <t>021DP1715L08</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2542,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3576,6 +3580,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4138,8 +4145,8 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4148,33 +4155,33 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="378"/>
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
       <c r="K2" s="267"/>
     </row>
     <row r="3" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -4315,17 +4322,17 @@
       <c r="L6" s="241"/>
     </row>
     <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
       <c r="J7" s="12"/>
       <c r="K7" s="267"/>
       <c r="L7" s="241"/>
@@ -4807,12 +4814,12 @@
       <c r="A38" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="372" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="372"/>
-      <c r="D38" s="372"/>
-      <c r="E38" s="373"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="373"/>
+      <c r="E38" s="374"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
@@ -4869,12 +4876,12 @@
       <c r="A42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="371" t="s">
+      <c r="B42" s="372" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="372"/>
-      <c r="D42" s="372"/>
-      <c r="E42" s="373"/>
+      <c r="C42" s="373"/>
+      <c r="D42" s="373"/>
+      <c r="E42" s="374"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
@@ -4931,12 +4938,12 @@
       <c r="A46" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="371" t="s">
+      <c r="B46" s="372" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="372"/>
-      <c r="D46" s="372"/>
-      <c r="E46" s="373"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="373"/>
+      <c r="E46" s="374"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
@@ -4993,12 +5000,12 @@
       <c r="A50" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="371" t="s">
+      <c r="B50" s="372" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="372"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="373"/>
+      <c r="C50" s="373"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="374"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
@@ -5073,8 +5080,8 @@
   </sheetPr>
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5089,17 +5096,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="400" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
+      <c r="B1" s="401" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
       <c r="H1" s="306"/>
       <c r="I1" s="306"/>
       <c r="J1" s="307"/>
@@ -5122,16 +5129,16 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="H2" s="301"/>
       <c r="I2" s="301"/>
       <c r="J2" s="302"/>
@@ -5154,22 +5161,22 @@
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="245" t="s">
+      <c r="D3" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="245" t="s">
+      <c r="E3" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="245" t="s">
+      <c r="F3" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="245" t="s">
+      <c r="G3" s="288" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="301"/>
@@ -5191,7 +5198,7 @@
       <c r="X3" s="251"/>
     </row>
     <row r="4" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="288" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -5234,7 +5241,7 @@
       <c r="X4" s="251"/>
     </row>
     <row r="5" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="288" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10">
@@ -5277,7 +5284,7 @@
       <c r="X5" s="251"/>
     </row>
     <row r="6" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="288" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10">
@@ -5320,15 +5327,15 @@
       <c r="X6" s="251"/>
     </row>
     <row r="7" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="381"/>
       <c r="H7" s="315"/>
       <c r="I7" s="309"/>
       <c r="J7" s="314"/>
@@ -5628,15 +5635,15 @@
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -5706,29 +5713,29 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
@@ -5854,19 +5861,19 @@
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
     </row>
     <row r="35" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="246" t="s">
+      <c r="A35" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="372" t="s">
+      <c r="B35" s="373" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="372"/>
-      <c r="D35" s="373"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="374"/>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
@@ -5984,11 +5991,11 @@
       <c r="A44" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="372" t="s">
+      <c r="B44" s="373" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="372"/>
-      <c r="D44" s="373"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="374"/>
     </row>
     <row r="45" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
@@ -6106,11 +6113,11 @@
       <c r="A53" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="372" t="s">
+      <c r="B53" s="373" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="372"/>
-      <c r="D53" s="373"/>
+      <c r="C53" s="373"/>
+      <c r="D53" s="374"/>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
@@ -6228,11 +6235,11 @@
       <c r="A62" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="372" t="s">
+      <c r="B62" s="373" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="372"/>
-      <c r="D62" s="373"/>
+      <c r="C62" s="373"/>
+      <c r="D62" s="374"/>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
@@ -6367,6 +6374,1302 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
+  <dimension ref="A1:X70"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="19.28515625" style="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="19.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="401" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
+      <c r="T1" s="308"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+    </row>
+    <row r="2" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="308"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+    </row>
+    <row r="3" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="245" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="301"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+    </row>
+    <row r="4" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="311">
+        <f>SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="312"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="308"/>
+      <c r="S4" s="308"/>
+      <c r="T4" s="308"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="251"/>
+    </row>
+    <row r="5" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="315">
+        <f>SUM(B5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="309"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="251"/>
+      <c r="W5" s="251"/>
+      <c r="X5" s="251"/>
+    </row>
+    <row r="6" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="315" t="e">
+        <f>H5/12/H4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="309"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="318"/>
+      <c r="R6" s="308"/>
+      <c r="S6" s="308"/>
+      <c r="T6" s="308"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="251"/>
+      <c r="W6" s="251"/>
+      <c r="X6" s="251"/>
+    </row>
+    <row r="7" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="379" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="381"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="314"/>
+      <c r="Q7" s="319"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
+    </row>
+    <row r="8" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="311">
+        <f>SUM(B8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="309"/>
+      <c r="J8" s="320"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="319"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
+    </row>
+    <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="315">
+        <f>SUM(B9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="309"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="321"/>
+      <c r="Q9" s="308"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+    </row>
+    <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="315" t="e">
+        <f>H9/12/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="309"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="323"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="323"/>
+      <c r="Q10" s="302"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="301"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="323"/>
+      <c r="Q11" s="302"/>
+      <c r="R11" s="301"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="324"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="325"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="301"/>
+      <c r="S12" s="301"/>
+      <c r="T12" s="301"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="325"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="301"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="301"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="301"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="301"/>
+      <c r="O14" s="301"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="301"/>
+      <c r="T14" s="301"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
+      <c r="M15" s="304"/>
+      <c r="N15" s="304"/>
+      <c r="O15" s="304"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="304"/>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="37">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="37">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="39">
+        <f>B25</f>
+        <v>100000</v>
+      </c>
+      <c r="C27" s="39">
+        <f>C25</f>
+        <v>100000</v>
+      </c>
+      <c r="D27" s="39">
+        <f>D25</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="40">
+        <f>B27*2</f>
+        <v>200000</v>
+      </c>
+      <c r="C29" s="40">
+        <f>C27*2</f>
+        <v>200000</v>
+      </c>
+      <c r="D29" s="40">
+        <f>D27*2</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="39">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="39">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="39">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="44">
+        <v>4000</v>
+      </c>
+      <c r="C33" s="44">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="246" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="373" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="373"/>
+      <c r="D35" s="374"/>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="47">
+        <v>5150</v>
+      </c>
+      <c r="C36" s="48">
+        <v>6440</v>
+      </c>
+      <c r="D36" s="49">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="50">
+        <v>6020</v>
+      </c>
+      <c r="C37" s="51">
+        <v>7730</v>
+      </c>
+      <c r="D37" s="52">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="50">
+        <v>7560</v>
+      </c>
+      <c r="C38" s="51">
+        <v>9720</v>
+      </c>
+      <c r="D38" s="52">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="50">
+        <v>7700</v>
+      </c>
+      <c r="C39" s="51">
+        <v>9810</v>
+      </c>
+      <c r="D39" s="52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="50">
+        <v>7810</v>
+      </c>
+      <c r="C40" s="51">
+        <v>9930</v>
+      </c>
+      <c r="D40" s="52">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="50">
+        <v>7940</v>
+      </c>
+      <c r="C41" s="51">
+        <v>10100</v>
+      </c>
+      <c r="D41" s="52">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="50">
+        <v>8100</v>
+      </c>
+      <c r="C42" s="51">
+        <v>10200</v>
+      </c>
+      <c r="D42" s="52">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="53">
+        <v>9550</v>
+      </c>
+      <c r="C43" s="54">
+        <v>12390</v>
+      </c>
+      <c r="D43" s="55">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="373" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="373"/>
+      <c r="D44" s="374"/>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="47">
+        <v>464</v>
+      </c>
+      <c r="C45" s="48">
+        <v>580</v>
+      </c>
+      <c r="D45" s="49">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="50">
+        <v>542</v>
+      </c>
+      <c r="C46" s="51">
+        <v>696</v>
+      </c>
+      <c r="D46" s="52">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="50">
+        <v>680</v>
+      </c>
+      <c r="C47" s="51">
+        <v>875</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="50">
+        <v>693</v>
+      </c>
+      <c r="C48" s="51">
+        <v>883</v>
+      </c>
+      <c r="D48" s="52">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="50">
+        <v>703</v>
+      </c>
+      <c r="C49" s="51">
+        <v>894</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="50">
+        <v>715</v>
+      </c>
+      <c r="C50" s="51">
+        <v>909</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="50">
+        <v>729</v>
+      </c>
+      <c r="C51" s="51">
+        <v>918</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="53">
+        <v>860</v>
+      </c>
+      <c r="C52" s="54">
+        <v>1115</v>
+      </c>
+      <c r="D52" s="55">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="373" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="373"/>
+      <c r="D53" s="374"/>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="47">
+        <v>4893</v>
+      </c>
+      <c r="C54" s="48">
+        <v>6118</v>
+      </c>
+      <c r="D54" s="49">
+        <v>7363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="50">
+        <v>5719</v>
+      </c>
+      <c r="C55" s="51">
+        <v>7344</v>
+      </c>
+      <c r="D55" s="52">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="50">
+        <v>7182</v>
+      </c>
+      <c r="C56" s="51">
+        <v>9234</v>
+      </c>
+      <c r="D56" s="52">
+        <v>11258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="50">
+        <v>7315</v>
+      </c>
+      <c r="C57" s="51">
+        <v>9320</v>
+      </c>
+      <c r="D57" s="52">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="50">
+        <v>7420</v>
+      </c>
+      <c r="C58" s="51">
+        <v>9434</v>
+      </c>
+      <c r="D58" s="52">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="50">
+        <v>7543</v>
+      </c>
+      <c r="C59" s="51">
+        <v>9595</v>
+      </c>
+      <c r="D59" s="52">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="50">
+        <v>7695</v>
+      </c>
+      <c r="C60" s="51">
+        <v>9690</v>
+      </c>
+      <c r="D60" s="52">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="53">
+        <v>9073</v>
+      </c>
+      <c r="C61" s="54">
+        <v>11771</v>
+      </c>
+      <c r="D61" s="55">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="373" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="373"/>
+      <c r="D62" s="374"/>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="47">
+        <v>440</v>
+      </c>
+      <c r="C63" s="48">
+        <v>551</v>
+      </c>
+      <c r="D63" s="49">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="50">
+        <v>515</v>
+      </c>
+      <c r="C64" s="51">
+        <v>661</v>
+      </c>
+      <c r="D64" s="52">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="50">
+        <v>646</v>
+      </c>
+      <c r="C65" s="51">
+        <v>831</v>
+      </c>
+      <c r="D65" s="52">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="50">
+        <v>658</v>
+      </c>
+      <c r="C66" s="51">
+        <v>839</v>
+      </c>
+      <c r="D66" s="52">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="50">
+        <v>668</v>
+      </c>
+      <c r="C67" s="51">
+        <v>849</v>
+      </c>
+      <c r="D67" s="52">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="50">
+        <v>679</v>
+      </c>
+      <c r="C68" s="51">
+        <v>864</v>
+      </c>
+      <c r="D68" s="52">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="50">
+        <v>693</v>
+      </c>
+      <c r="C69" s="51">
+        <v>872</v>
+      </c>
+      <c r="D69" s="52">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="53">
+        <v>817</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1059</v>
+      </c>
+      <c r="D70" s="55">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -6385,16 +7688,16 @@
       <c r="A1" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="405" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="405"/>
-      <c r="D1" s="405"/>
-      <c r="E1" s="405"/>
-      <c r="F1" s="405"/>
-      <c r="G1" s="405"/>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
       <c r="K1" s="306"/>
       <c r="L1" s="306"/>
       <c r="M1" s="326"/>
@@ -6413,18 +7716,18 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="406" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="406"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="406" t="s">
+      <c r="B2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="406"/>
-      <c r="H2" s="406"/>
-      <c r="I2" s="406"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
       <c r="K2" s="304"/>
       <c r="L2" s="305"/>
       <c r="M2" s="305"/>
@@ -6620,17 +7923,17 @@
       <c r="W6" s="304"/>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="408" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="408"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="408"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="408"/>
-      <c r="I7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="409"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="409"/>
+      <c r="H7" s="409"/>
+      <c r="I7" s="410"/>
       <c r="J7" s="9"/>
       <c r="K7" s="305"/>
       <c r="L7" s="331"/>
@@ -7164,22 +8467,22 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="410" t="s">
+      <c r="A34" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="411"/>
-      <c r="C34" s="411"/>
-      <c r="D34" s="411"/>
-      <c r="E34" s="412"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="412"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="413"/>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="401" t="s">
+      <c r="A35" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="403"/>
+      <c r="B35" s="403"/>
+      <c r="C35" s="403"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="404"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74"/>
@@ -7201,7 +8504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
@@ -7221,16 +8524,16 @@
       <c r="A1" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="405" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="405"/>
-      <c r="D1" s="405"/>
-      <c r="E1" s="405"/>
-      <c r="F1" s="405"/>
-      <c r="G1" s="405"/>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
       <c r="K1" s="292"/>
       <c r="L1" s="292"/>
       <c r="M1" s="292"/>
@@ -7249,18 +8552,18 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="406" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="406"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="406" t="s">
+      <c r="B2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="406"/>
-      <c r="H2" s="406"/>
-      <c r="I2" s="406"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
       <c r="K2" s="335"/>
       <c r="L2" s="335"/>
       <c r="M2" s="335"/>
@@ -7456,17 +8759,17 @@
       <c r="W6" s="304"/>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="408" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="408"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="408"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="408"/>
-      <c r="I7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="409"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="409"/>
+      <c r="H7" s="409"/>
+      <c r="I7" s="410"/>
       <c r="J7" s="9"/>
       <c r="K7" s="305"/>
       <c r="L7" s="305"/>
@@ -8013,22 +9316,22 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="410" t="s">
+      <c r="A34" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="411"/>
-      <c r="C34" s="411"/>
-      <c r="D34" s="411"/>
-      <c r="E34" s="412"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="412"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="413"/>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="401" t="s">
+      <c r="A35" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="403"/>
+      <c r="B35" s="403"/>
+      <c r="C35" s="403"/>
+      <c r="D35" s="403"/>
+      <c r="E35" s="404"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74"/>
@@ -8051,7 +9354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X72"/>
   <sheetViews>
@@ -8070,16 +9373,16 @@
       <c r="A1" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="394" t="s">
+      <c r="B1" s="395" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
       <c r="K1" s="306"/>
       <c r="L1" s="292"/>
       <c r="M1" s="345"/>
@@ -8099,18 +9402,18 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
       <c r="K2" s="290"/>
       <c r="L2" s="345"/>
       <c r="M2" s="346"/>
@@ -8311,17 +9614,17 @@
       <c r="X6" s="290"/>
     </row>
     <row r="7" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
       <c r="J7" s="15"/>
       <c r="K7" s="294"/>
       <c r="L7" s="294"/>
@@ -8923,21 +10226,21 @@
       <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="413" t="s">
+      <c r="A41" s="414" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="415" t="s">
+      <c r="B41" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="415"/>
-      <c r="D41" s="415" t="s">
+      <c r="C41" s="416"/>
+      <c r="D41" s="416" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="415"/>
-      <c r="F41" s="415" t="s">
+      <c r="E41" s="416"/>
+      <c r="F41" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="415"/>
+      <c r="G41" s="416"/>
       <c r="H41" s="121"/>
       <c r="I41" s="247" t="s">
         <v>113</v>
@@ -8945,7 +10248,7 @@
       <c r="J41" s="247"/>
     </row>
     <row r="42" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="414"/>
+      <c r="A42" s="415"/>
       <c r="B42" s="247" t="s">
         <v>131</v>
       </c>
@@ -9115,21 +10418,21 @@
       <c r="J49" s="120"/>
     </row>
     <row r="50" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="413" t="s">
+      <c r="A50" s="414" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="415" t="s">
+      <c r="B50" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="415"/>
-      <c r="D50" s="415" t="s">
+      <c r="C50" s="416"/>
+      <c r="D50" s="416" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="415"/>
-      <c r="F50" s="415" t="s">
+      <c r="E50" s="416"/>
+      <c r="F50" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="415"/>
+      <c r="G50" s="416"/>
       <c r="H50" s="121"/>
       <c r="I50" s="247" t="s">
         <v>113</v>
@@ -9137,7 +10440,7 @@
       <c r="J50" s="247"/>
     </row>
     <row r="51" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="414"/>
+      <c r="A51" s="415"/>
       <c r="B51" s="247" t="s">
         <v>131</v>
       </c>
@@ -9319,21 +10622,21 @@
       <c r="J59" s="120"/>
     </row>
     <row r="60" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A60" s="413" t="s">
+      <c r="A60" s="414" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="415" t="s">
+      <c r="B60" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="415"/>
-      <c r="D60" s="415" t="s">
+      <c r="C60" s="416"/>
+      <c r="D60" s="416" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="415"/>
-      <c r="F60" s="415" t="s">
+      <c r="E60" s="416"/>
+      <c r="F60" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="415"/>
+      <c r="G60" s="416"/>
       <c r="H60" s="121"/>
       <c r="I60" s="247" t="s">
         <v>113</v>
@@ -9341,7 +10644,7 @@
       <c r="J60" s="247"/>
     </row>
     <row r="61" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A61" s="414"/>
+      <c r="A61" s="415"/>
       <c r="B61" s="247" t="s">
         <v>131</v>
       </c>
@@ -9499,21 +10802,21 @@
       <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A68" s="413" t="s">
+      <c r="A68" s="414" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="415" t="s">
+      <c r="B68" s="416" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="415"/>
-      <c r="D68" s="415" t="s">
+      <c r="C68" s="416"/>
+      <c r="D68" s="416" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="415"/>
-      <c r="F68" s="415" t="s">
+      <c r="E68" s="416"/>
+      <c r="F68" s="416" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="415"/>
+      <c r="G68" s="416"/>
       <c r="H68" s="121"/>
       <c r="I68" s="247" t="s">
         <v>113</v>
@@ -9521,7 +10824,7 @@
       <c r="J68" s="247"/>
     </row>
     <row r="69" spans="1:10" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A69" s="414"/>
+      <c r="A69" s="415"/>
       <c r="B69" s="247" t="s">
         <v>131</v>
       </c>
@@ -9665,7 +10968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
@@ -9682,14 +10985,14 @@
       <c r="A1" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="394" t="s">
+      <c r="B1" s="395" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
       <c r="I1" s="306"/>
       <c r="J1" s="306"/>
       <c r="K1" s="357"/>
@@ -9707,16 +11010,16 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="I2" s="294"/>
       <c r="J2" s="358"/>
       <c r="K2" s="358"/>
@@ -9883,15 +11186,15 @@
       <c r="T6" s="294"/>
     </row>
     <row r="7" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
       <c r="H7" s="15"/>
       <c r="I7" s="294"/>
       <c r="J7" s="357"/>
@@ -10272,7 +11575,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="221" t="s">
         <v>177</v>
       </c>
@@ -10421,7 +11724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -10552,10 +11855,10 @@
       <c r="L6" s="290"/>
     </row>
     <row r="7" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
+      <c r="B7" s="380"/>
       <c r="C7" s="15"/>
       <c r="D7" s="294"/>
       <c r="E7" s="364"/>
@@ -10740,29 +12043,29 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="I2" s="260"/>
       <c r="J2" s="242"/>
     </row>
@@ -10877,15 +12180,15 @@
       <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
       <c r="H7" s="12"/>
       <c r="J7" s="241"/>
     </row>
@@ -11109,29 +12412,29 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="J2" s="242"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -11244,15 +12547,15 @@
       <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
       <c r="H7" s="12"/>
       <c r="J7" s="241"/>
     </row>
@@ -11459,11 +12762,949 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="16.85546875" style="260"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="376" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="378"/>
+    </row>
+    <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
+      <c r="K2" s="267"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="371" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="371" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="371" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="371" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="371" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="371" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="371" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="267"/>
+      <c r="M3" s="242"/>
+    </row>
+    <row r="4" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f>SUM(B4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="267"/>
+      <c r="L4" s="241"/>
+    </row>
+    <row r="5" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="237">
+        <v>0</v>
+      </c>
+      <c r="C5" s="237">
+        <v>0</v>
+      </c>
+      <c r="D5" s="237">
+        <v>0</v>
+      </c>
+      <c r="E5" s="237">
+        <v>0</v>
+      </c>
+      <c r="F5" s="237">
+        <v>0</v>
+      </c>
+      <c r="G5" s="237">
+        <v>0</v>
+      </c>
+      <c r="H5" s="237">
+        <v>0</v>
+      </c>
+      <c r="I5" s="237">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>SUM(B5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="267"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="242"/>
+    </row>
+    <row r="6" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="237">
+        <v>0</v>
+      </c>
+      <c r="C6" s="237">
+        <v>0</v>
+      </c>
+      <c r="D6" s="237">
+        <v>0</v>
+      </c>
+      <c r="E6" s="237">
+        <v>0</v>
+      </c>
+      <c r="F6" s="237">
+        <v>0</v>
+      </c>
+      <c r="G6" s="237">
+        <v>0</v>
+      </c>
+      <c r="H6" s="237">
+        <v>0</v>
+      </c>
+      <c r="I6" s="237">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f>IF(J4 = 0, 0, J5/12/J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="267"/>
+      <c r="L6" s="241"/>
+    </row>
+    <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="379" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="241"/>
+    </row>
+    <row r="8" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="284">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f>SUM(B8:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="267"/>
+      <c r="L8" s="241"/>
+      <c r="N8" s="243"/>
+    </row>
+    <row r="9" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="237">
+        <v>0</v>
+      </c>
+      <c r="C9" s="237">
+        <v>0</v>
+      </c>
+      <c r="D9" s="237">
+        <v>0</v>
+      </c>
+      <c r="E9" s="237">
+        <v>0</v>
+      </c>
+      <c r="F9" s="237">
+        <v>0</v>
+      </c>
+      <c r="G9" s="237">
+        <v>0</v>
+      </c>
+      <c r="H9" s="237">
+        <v>0</v>
+      </c>
+      <c r="I9" s="237">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f>SUM(B9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="267"/>
+      <c r="L9" s="241"/>
+      <c r="O9" s="243"/>
+    </row>
+    <row r="10" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="237">
+        <v>0</v>
+      </c>
+      <c r="C10" s="237">
+        <v>0</v>
+      </c>
+      <c r="D10" s="237">
+        <v>0</v>
+      </c>
+      <c r="E10" s="237">
+        <v>0</v>
+      </c>
+      <c r="F10" s="237">
+        <v>0</v>
+      </c>
+      <c r="G10" s="237">
+        <v>0</v>
+      </c>
+      <c r="H10" s="237">
+        <v>0</v>
+      </c>
+      <c r="I10" s="237">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f>IF(J8 = 0, 0, J9/12/J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="267"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="254"/>
+      <c r="O10" s="242"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="242"/>
+    </row>
+    <row r="12" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="281"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="281"/>
+      <c r="I12" s="281"/>
+      <c r="L12" s="282"/>
+    </row>
+    <row r="13" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="283"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+    </row>
+    <row r="14" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="283"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="283"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.45">
+      <c r="A24" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="37">
+        <v>40000</v>
+      </c>
+      <c r="C27" s="37">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="37">
+        <v>40000</v>
+      </c>
+      <c r="E27" s="37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="39">
+        <v>40000</v>
+      </c>
+      <c r="C29" s="39">
+        <v>40000</v>
+      </c>
+      <c r="D29" s="39">
+        <v>40000</v>
+      </c>
+      <c r="E29" s="39">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="77">
+        <v>80000</v>
+      </c>
+      <c r="C31" s="77">
+        <v>80000</v>
+      </c>
+      <c r="D31" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E31" s="77">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="39">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="39">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="39">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="39">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="80">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="80">
+        <v>4000</v>
+      </c>
+      <c r="D35" s="80">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="80">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="372" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="373"/>
+      <c r="D38" s="373"/>
+      <c r="E38" s="374"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="83">
+        <v>2654</v>
+      </c>
+      <c r="C39" s="84">
+        <v>3887</v>
+      </c>
+      <c r="D39" s="84">
+        <v>5139</v>
+      </c>
+      <c r="E39" s="84">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="83">
+        <v>3078</v>
+      </c>
+      <c r="C40" s="84">
+        <v>4699</v>
+      </c>
+      <c r="D40" s="84">
+        <v>6321</v>
+      </c>
+      <c r="E40" s="84">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="83">
+        <v>3832</v>
+      </c>
+      <c r="C41" s="84">
+        <v>5877</v>
+      </c>
+      <c r="D41" s="84">
+        <v>7924</v>
+      </c>
+      <c r="E41" s="84">
+        <v>9948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="372" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="373"/>
+      <c r="D42" s="373"/>
+      <c r="E42" s="374"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="85">
+        <v>239</v>
+      </c>
+      <c r="C43" s="86">
+        <v>350</v>
+      </c>
+      <c r="D43" s="86">
+        <v>463</v>
+      </c>
+      <c r="E43" s="86">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="85">
+        <v>278</v>
+      </c>
+      <c r="C44" s="86">
+        <v>423</v>
+      </c>
+      <c r="D44" s="86">
+        <v>569</v>
+      </c>
+      <c r="E44" s="86">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="85">
+        <v>345</v>
+      </c>
+      <c r="C45" s="86">
+        <v>529</v>
+      </c>
+      <c r="D45" s="86">
+        <v>714</v>
+      </c>
+      <c r="E45" s="86">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="372" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="373"/>
+      <c r="D46" s="373"/>
+      <c r="E46" s="374"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="83">
+        <v>2522</v>
+      </c>
+      <c r="C47" s="84">
+        <v>3693</v>
+      </c>
+      <c r="D47" s="84">
+        <v>4883</v>
+      </c>
+      <c r="E47" s="84">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="83">
+        <v>2925</v>
+      </c>
+      <c r="C48" s="84">
+        <v>4465</v>
+      </c>
+      <c r="D48" s="84">
+        <v>6005</v>
+      </c>
+      <c r="E48" s="84">
+        <v>7529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="83">
+        <v>3640</v>
+      </c>
+      <c r="C49" s="84">
+        <v>5584</v>
+      </c>
+      <c r="D49" s="84">
+        <v>7528</v>
+      </c>
+      <c r="E49" s="84">
+        <v>9451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="372" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="373"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="374"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="85">
+        <v>228</v>
+      </c>
+      <c r="C51" s="86">
+        <v>333</v>
+      </c>
+      <c r="D51" s="86">
+        <v>440</v>
+      </c>
+      <c r="E51" s="86">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="85">
+        <v>265</v>
+      </c>
+      <c r="C52" s="86">
+        <v>402</v>
+      </c>
+      <c r="D52" s="86">
+        <v>541</v>
+      </c>
+      <c r="E52" s="86">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="85">
+        <v>328</v>
+      </c>
+      <c r="C53" s="86">
+        <v>503</v>
+      </c>
+      <c r="D53" s="86">
+        <v>679</v>
+      </c>
+      <c r="E53" s="86">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B42:E42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -11476,29 +13717,29 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="J2" s="242"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -11611,15 +13852,15 @@
       <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
       <c r="H7" s="12"/>
       <c r="J7" s="241"/>
     </row>
@@ -11823,7 +14064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -11844,20 +14085,20 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="378"/>
       <c r="O1" s="270"/>
       <c r="P1" s="270"/>
     </row>
@@ -11865,26 +14106,26 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374" t="s">
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374" t="s">
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
       <c r="O2" s="271"/>
       <c r="P2" s="271"/>
     </row>
@@ -12073,21 +14314,21 @@
       <c r="P6" s="271"/>
     </row>
     <row r="7" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
-      <c r="J7" s="379"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="379"/>
-      <c r="M7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="380"/>
+      <c r="K7" s="380"/>
+      <c r="L7" s="380"/>
+      <c r="M7" s="381"/>
       <c r="N7" s="15"/>
       <c r="O7" s="271"/>
       <c r="P7" s="271"/>
@@ -12435,69 +14676,69 @@
       <c r="A25" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="387" t="s">
+      <c r="B25" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="387" t="s">
+      <c r="C25" s="389"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="389"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="388"/>
-      <c r="J25" s="388"/>
-      <c r="K25" s="388"/>
-      <c r="L25" s="388"/>
-      <c r="M25" s="389"/>
-      <c r="N25" s="387" t="s">
+      <c r="I25" s="389"/>
+      <c r="J25" s="389"/>
+      <c r="K25" s="389"/>
+      <c r="L25" s="389"/>
+      <c r="M25" s="390"/>
+      <c r="N25" s="388" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="388"/>
-      <c r="P25" s="388"/>
-      <c r="Q25" s="388"/>
-      <c r="R25" s="388"/>
-      <c r="S25" s="389"/>
+      <c r="O25" s="389"/>
+      <c r="P25" s="389"/>
+      <c r="Q25" s="389"/>
+      <c r="R25" s="389"/>
+      <c r="S25" s="390"/>
     </row>
     <row r="26" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="387" t="s">
+      <c r="C26" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="389"/>
-      <c r="E26" s="387" t="s">
+      <c r="D26" s="390"/>
+      <c r="E26" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="388"/>
-      <c r="G26" s="389"/>
+      <c r="F26" s="389"/>
+      <c r="G26" s="390"/>
       <c r="H26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="387" t="s">
+      <c r="I26" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="389"/>
-      <c r="K26" s="387" t="s">
+      <c r="J26" s="390"/>
+      <c r="K26" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="388"/>
-      <c r="M26" s="389"/>
+      <c r="L26" s="389"/>
+      <c r="M26" s="390"/>
       <c r="N26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="387" t="s">
+      <c r="O26" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="P26" s="389"/>
-      <c r="Q26" s="387" t="s">
+      <c r="P26" s="390"/>
+      <c r="Q26" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="R26" s="388"/>
-      <c r="S26" s="389"/>
+      <c r="R26" s="389"/>
+      <c r="S26" s="390"/>
     </row>
     <row r="27" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
@@ -13112,39 +15353,39 @@
       <c r="B37" s="102">
         <v>3261</v>
       </c>
-      <c r="C37" s="381">
+      <c r="C37" s="382">
         <v>6196</v>
       </c>
-      <c r="D37" s="383"/>
-      <c r="E37" s="381">
+      <c r="D37" s="384"/>
+      <c r="E37" s="382">
         <v>7829</v>
       </c>
-      <c r="F37" s="382"/>
-      <c r="G37" s="383"/>
+      <c r="F37" s="383"/>
+      <c r="G37" s="384"/>
       <c r="H37" s="102">
         <v>4773</v>
       </c>
-      <c r="I37" s="381">
+      <c r="I37" s="382">
         <v>9068</v>
       </c>
-      <c r="J37" s="383"/>
-      <c r="K37" s="381">
+      <c r="J37" s="384"/>
+      <c r="K37" s="382">
         <v>10853</v>
       </c>
-      <c r="L37" s="382"/>
-      <c r="M37" s="383"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="384"/>
       <c r="N37" s="102">
         <v>6546</v>
       </c>
-      <c r="O37" s="381">
+      <c r="O37" s="382">
         <v>12438</v>
       </c>
-      <c r="P37" s="383"/>
-      <c r="Q37" s="381">
+      <c r="P37" s="384"/>
+      <c r="Q37" s="382">
         <v>15086</v>
       </c>
-      <c r="R37" s="382"/>
-      <c r="S37" s="383"/>
+      <c r="R37" s="383"/>
+      <c r="S37" s="384"/>
     </row>
     <row r="38" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="101" t="s">
@@ -13153,39 +15394,39 @@
       <c r="B38" s="102">
         <v>14</v>
       </c>
-      <c r="C38" s="381">
+      <c r="C38" s="382">
         <v>25</v>
       </c>
-      <c r="D38" s="383"/>
-      <c r="E38" s="381">
+      <c r="D38" s="384"/>
+      <c r="E38" s="382">
         <v>32</v>
       </c>
-      <c r="F38" s="382"/>
-      <c r="G38" s="383"/>
+      <c r="F38" s="383"/>
+      <c r="G38" s="384"/>
       <c r="H38" s="102">
         <v>20</v>
       </c>
-      <c r="I38" s="381">
+      <c r="I38" s="382">
         <v>37</v>
       </c>
-      <c r="J38" s="383"/>
-      <c r="K38" s="381">
+      <c r="J38" s="384"/>
+      <c r="K38" s="382">
         <v>44</v>
       </c>
-      <c r="L38" s="382"/>
-      <c r="M38" s="383"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="384"/>
       <c r="N38" s="102">
         <v>27</v>
       </c>
-      <c r="O38" s="381">
+      <c r="O38" s="382">
         <v>50</v>
       </c>
-      <c r="P38" s="383"/>
-      <c r="Q38" s="381">
+      <c r="P38" s="384"/>
+      <c r="Q38" s="382">
         <v>61</v>
       </c>
-      <c r="R38" s="382"/>
-      <c r="S38" s="383"/>
+      <c r="R38" s="383"/>
+      <c r="S38" s="384"/>
     </row>
     <row r="39" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="103" t="s">
@@ -13194,39 +15435,39 @@
       <c r="B39" s="104">
         <v>3275</v>
       </c>
-      <c r="C39" s="384">
+      <c r="C39" s="385">
         <v>6221</v>
       </c>
-      <c r="D39" s="385"/>
-      <c r="E39" s="384">
+      <c r="D39" s="386"/>
+      <c r="E39" s="385">
         <v>7861</v>
       </c>
-      <c r="F39" s="386"/>
-      <c r="G39" s="385"/>
+      <c r="F39" s="387"/>
+      <c r="G39" s="386"/>
       <c r="H39" s="104">
         <v>4793</v>
       </c>
-      <c r="I39" s="384">
+      <c r="I39" s="385">
         <v>9105</v>
       </c>
-      <c r="J39" s="385"/>
-      <c r="K39" s="384">
+      <c r="J39" s="386"/>
+      <c r="K39" s="385">
         <v>10897</v>
       </c>
-      <c r="L39" s="386"/>
-      <c r="M39" s="385"/>
+      <c r="L39" s="387"/>
+      <c r="M39" s="386"/>
       <c r="N39" s="104">
         <v>6573</v>
       </c>
-      <c r="O39" s="384">
+      <c r="O39" s="385">
         <v>12488</v>
       </c>
-      <c r="P39" s="385"/>
-      <c r="Q39" s="384">
+      <c r="P39" s="386"/>
+      <c r="Q39" s="385">
         <v>15147</v>
       </c>
-      <c r="R39" s="386"/>
-      <c r="S39" s="385"/>
+      <c r="R39" s="387"/>
+      <c r="S39" s="386"/>
     </row>
     <row r="40" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="101" t="s">
@@ -13235,39 +15476,39 @@
       <c r="B40" s="102">
         <v>271</v>
       </c>
-      <c r="C40" s="381">
+      <c r="C40" s="382">
         <v>516</v>
       </c>
-      <c r="D40" s="383"/>
-      <c r="E40" s="381">
+      <c r="D40" s="384"/>
+      <c r="E40" s="382">
         <v>653</v>
       </c>
-      <c r="F40" s="382"/>
-      <c r="G40" s="383"/>
+      <c r="F40" s="383"/>
+      <c r="G40" s="384"/>
       <c r="H40" s="102">
         <v>398</v>
       </c>
-      <c r="I40" s="381">
+      <c r="I40" s="382">
         <v>755</v>
       </c>
-      <c r="J40" s="383"/>
-      <c r="K40" s="381">
+      <c r="J40" s="384"/>
+      <c r="K40" s="382">
         <v>905</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="383"/>
+      <c r="L40" s="383"/>
+      <c r="M40" s="384"/>
       <c r="N40" s="102">
         <v>545</v>
       </c>
-      <c r="O40" s="381">
+      <c r="O40" s="382">
         <v>1036</v>
       </c>
-      <c r="P40" s="383"/>
-      <c r="Q40" s="381">
+      <c r="P40" s="384"/>
+      <c r="Q40" s="382">
         <v>1257</v>
       </c>
-      <c r="R40" s="382"/>
-      <c r="S40" s="383"/>
+      <c r="R40" s="383"/>
+      <c r="S40" s="384"/>
     </row>
     <row r="41" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="101" t="s">
@@ -13276,39 +15517,39 @@
       <c r="B41" s="102">
         <v>2</v>
       </c>
-      <c r="C41" s="381">
+      <c r="C41" s="382">
         <v>3</v>
       </c>
-      <c r="D41" s="383"/>
-      <c r="E41" s="381">
+      <c r="D41" s="384"/>
+      <c r="E41" s="382">
         <v>3</v>
       </c>
-      <c r="F41" s="382"/>
-      <c r="G41" s="383"/>
+      <c r="F41" s="383"/>
+      <c r="G41" s="384"/>
       <c r="H41" s="102">
         <v>2</v>
       </c>
-      <c r="I41" s="381">
+      <c r="I41" s="382">
         <v>4</v>
       </c>
-      <c r="J41" s="383"/>
-      <c r="K41" s="381">
+      <c r="J41" s="384"/>
+      <c r="K41" s="382">
         <v>4</v>
       </c>
-      <c r="L41" s="382"/>
-      <c r="M41" s="383"/>
+      <c r="L41" s="383"/>
+      <c r="M41" s="384"/>
       <c r="N41" s="102">
         <v>3</v>
       </c>
-      <c r="O41" s="381">
+      <c r="O41" s="382">
         <v>5</v>
       </c>
-      <c r="P41" s="383"/>
-      <c r="Q41" s="381">
+      <c r="P41" s="384"/>
+      <c r="Q41" s="382">
         <v>6</v>
       </c>
-      <c r="R41" s="382"/>
-      <c r="S41" s="383"/>
+      <c r="R41" s="383"/>
+      <c r="S41" s="384"/>
     </row>
     <row r="42" spans="1:19" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
@@ -13317,39 +15558,39 @@
       <c r="B42" s="104">
         <v>273</v>
       </c>
-      <c r="C42" s="384">
+      <c r="C42" s="385">
         <v>519</v>
       </c>
-      <c r="D42" s="385"/>
-      <c r="E42" s="384">
+      <c r="D42" s="386"/>
+      <c r="E42" s="385">
         <v>656</v>
       </c>
-      <c r="F42" s="386"/>
-      <c r="G42" s="385"/>
+      <c r="F42" s="387"/>
+      <c r="G42" s="386"/>
       <c r="H42" s="104">
         <v>400</v>
       </c>
-      <c r="I42" s="384">
+      <c r="I42" s="385">
         <v>759</v>
       </c>
-      <c r="J42" s="385"/>
-      <c r="K42" s="384">
+      <c r="J42" s="386"/>
+      <c r="K42" s="385">
         <v>909</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="385"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="386"/>
       <c r="N42" s="104">
         <v>548</v>
       </c>
-      <c r="O42" s="384">
+      <c r="O42" s="385">
         <v>1041</v>
       </c>
-      <c r="P42" s="385"/>
-      <c r="Q42" s="384">
+      <c r="P42" s="386"/>
+      <c r="Q42" s="385">
         <v>1263</v>
       </c>
-      <c r="R42" s="386"/>
-      <c r="S42" s="385"/>
+      <c r="R42" s="387"/>
+      <c r="S42" s="386"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -13409,8 +15650,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13429,45 +15673,45 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="378"/>
     </row>
     <row r="2" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374" t="s">
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374" t="s">
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
     </row>
     <row r="3" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="219" t="s">
@@ -13648,21 +15892,21 @@
       <c r="O6" s="240"/>
     </row>
     <row r="7" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
-      <c r="J7" s="379"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="379"/>
-      <c r="M7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="380"/>
+      <c r="K7" s="380"/>
+      <c r="L7" s="380"/>
+      <c r="M7" s="381"/>
       <c r="N7" s="15"/>
       <c r="O7" s="240"/>
     </row>
@@ -13814,598 +16058,6 @@
       <c r="P12" s="253"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2</v>
-      </c>
-      <c r="D20" s="21">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
-        <v>3</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
-        <v>2</v>
-      </c>
-      <c r="J20" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" style="260"/>
-    <col min="2" max="13" width="16" style="260" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="260" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.5703125" style="260"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="375" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="377"/>
-    </row>
-    <row r="2" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="374" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
-    </row>
-    <row r="3" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="268" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="268" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="268" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="268" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="267"/>
-    </row>
-    <row r="4" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="268" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <f>SUM(B4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="274"/>
-    </row>
-    <row r="5" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="237">
-        <v>0</v>
-      </c>
-      <c r="C5" s="237">
-        <v>0</v>
-      </c>
-      <c r="D5" s="237">
-        <v>0</v>
-      </c>
-      <c r="E5" s="237">
-        <v>0</v>
-      </c>
-      <c r="F5" s="237">
-        <v>0</v>
-      </c>
-      <c r="G5" s="237">
-        <v>0</v>
-      </c>
-      <c r="H5" s="237">
-        <v>0</v>
-      </c>
-      <c r="I5" s="237">
-        <v>0</v>
-      </c>
-      <c r="J5" s="237">
-        <v>0</v>
-      </c>
-      <c r="K5" s="237">
-        <v>0</v>
-      </c>
-      <c r="L5" s="237">
-        <v>0</v>
-      </c>
-      <c r="M5" s="237">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <f t="shared" ref="N5" si="0">SUM(B5:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="274"/>
-    </row>
-    <row r="6" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="237">
-        <v>0</v>
-      </c>
-      <c r="C6" s="237">
-        <v>0</v>
-      </c>
-      <c r="D6" s="237">
-        <v>0</v>
-      </c>
-      <c r="E6" s="237">
-        <v>0</v>
-      </c>
-      <c r="F6" s="237">
-        <v>0</v>
-      </c>
-      <c r="G6" s="237">
-        <v>0</v>
-      </c>
-      <c r="H6" s="237">
-        <v>0</v>
-      </c>
-      <c r="I6" s="237">
-        <v>0</v>
-      </c>
-      <c r="J6" s="237">
-        <v>0</v>
-      </c>
-      <c r="K6" s="237">
-        <v>0</v>
-      </c>
-      <c r="L6" s="237">
-        <v>0</v>
-      </c>
-      <c r="M6" s="237">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <f>IF(N5=0,0,N5/12/N4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="274"/>
-    </row>
-    <row r="7" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
-      <c r="J7" s="379"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="379"/>
-      <c r="M7" s="380"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="267"/>
-    </row>
-    <row r="8" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <f>SUM(B8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="274"/>
-      <c r="P8" s="261"/>
-    </row>
-    <row r="9" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="237">
-        <v>0</v>
-      </c>
-      <c r="C9" s="237">
-        <v>0</v>
-      </c>
-      <c r="D9" s="237">
-        <v>0</v>
-      </c>
-      <c r="E9" s="237">
-        <v>0</v>
-      </c>
-      <c r="F9" s="237">
-        <v>0</v>
-      </c>
-      <c r="G9" s="237">
-        <v>0</v>
-      </c>
-      <c r="H9" s="237">
-        <v>0</v>
-      </c>
-      <c r="I9" s="237">
-        <v>0</v>
-      </c>
-      <c r="J9" s="237">
-        <v>0</v>
-      </c>
-      <c r="K9" s="237">
-        <v>0</v>
-      </c>
-      <c r="L9" s="237">
-        <v>0</v>
-      </c>
-      <c r="M9" s="237">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" ref="N9" si="1">SUM(B9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="274"/>
-    </row>
-    <row r="10" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="216" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="237">
-        <v>0</v>
-      </c>
-      <c r="C10" s="237">
-        <v>0</v>
-      </c>
-      <c r="D10" s="237">
-        <v>0</v>
-      </c>
-      <c r="E10" s="237">
-        <v>0</v>
-      </c>
-      <c r="F10" s="237">
-        <v>0</v>
-      </c>
-      <c r="G10" s="237">
-        <v>0</v>
-      </c>
-      <c r="H10" s="237">
-        <v>0</v>
-      </c>
-      <c r="I10" s="237">
-        <v>0</v>
-      </c>
-      <c r="J10" s="237">
-        <v>0</v>
-      </c>
-      <c r="K10" s="237">
-        <v>0</v>
-      </c>
-      <c r="L10" s="237">
-        <v>0</v>
-      </c>
-      <c r="M10" s="237">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
-        <f>IF(N9=0,0,N9/12/N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="267"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="P11" s="254"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="254"/>
-      <c r="P12" s="253"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L13" s="253"/>
-    </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>17</v>
@@ -14593,7 +16245,602 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF002060"/>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="260"/>
+    <col min="2" max="13" width="16" style="260" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="260" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.5703125" style="260"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="376" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="378"/>
+    </row>
+    <row r="2" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="375" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
+    </row>
+    <row r="3" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="268" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="268" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="268" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="268" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="267"/>
+    </row>
+    <row r="4" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <f>SUM(B4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="274"/>
+    </row>
+    <row r="5" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="237">
+        <v>0</v>
+      </c>
+      <c r="C5" s="237">
+        <v>0</v>
+      </c>
+      <c r="D5" s="237">
+        <v>0</v>
+      </c>
+      <c r="E5" s="237">
+        <v>0</v>
+      </c>
+      <c r="F5" s="237">
+        <v>0</v>
+      </c>
+      <c r="G5" s="237">
+        <v>0</v>
+      </c>
+      <c r="H5" s="237">
+        <v>0</v>
+      </c>
+      <c r="I5" s="237">
+        <v>0</v>
+      </c>
+      <c r="J5" s="237">
+        <v>0</v>
+      </c>
+      <c r="K5" s="237">
+        <v>0</v>
+      </c>
+      <c r="L5" s="237">
+        <v>0</v>
+      </c>
+      <c r="M5" s="237">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" ref="N5" si="0">SUM(B5:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="274"/>
+    </row>
+    <row r="6" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="237">
+        <v>0</v>
+      </c>
+      <c r="C6" s="237">
+        <v>0</v>
+      </c>
+      <c r="D6" s="237">
+        <v>0</v>
+      </c>
+      <c r="E6" s="237">
+        <v>0</v>
+      </c>
+      <c r="F6" s="237">
+        <v>0</v>
+      </c>
+      <c r="G6" s="237">
+        <v>0</v>
+      </c>
+      <c r="H6" s="237">
+        <v>0</v>
+      </c>
+      <c r="I6" s="237">
+        <v>0</v>
+      </c>
+      <c r="J6" s="237">
+        <v>0</v>
+      </c>
+      <c r="K6" s="237">
+        <v>0</v>
+      </c>
+      <c r="L6" s="237">
+        <v>0</v>
+      </c>
+      <c r="M6" s="237">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <f>IF(N5=0,0,N5/12/N4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="274"/>
+    </row>
+    <row r="7" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="379" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="380"/>
+      <c r="K7" s="380"/>
+      <c r="L7" s="380"/>
+      <c r="M7" s="381"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="267"/>
+    </row>
+    <row r="8" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <f>SUM(B8:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="274"/>
+      <c r="P8" s="261"/>
+    </row>
+    <row r="9" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="237">
+        <v>0</v>
+      </c>
+      <c r="C9" s="237">
+        <v>0</v>
+      </c>
+      <c r="D9" s="237">
+        <v>0</v>
+      </c>
+      <c r="E9" s="237">
+        <v>0</v>
+      </c>
+      <c r="F9" s="237">
+        <v>0</v>
+      </c>
+      <c r="G9" s="237">
+        <v>0</v>
+      </c>
+      <c r="H9" s="237">
+        <v>0</v>
+      </c>
+      <c r="I9" s="237">
+        <v>0</v>
+      </c>
+      <c r="J9" s="237">
+        <v>0</v>
+      </c>
+      <c r="K9" s="237">
+        <v>0</v>
+      </c>
+      <c r="L9" s="237">
+        <v>0</v>
+      </c>
+      <c r="M9" s="237">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" ref="N9" si="1">SUM(B9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="274"/>
+    </row>
+    <row r="10" spans="1:16" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="237">
+        <v>0</v>
+      </c>
+      <c r="C10" s="237">
+        <v>0</v>
+      </c>
+      <c r="D10" s="237">
+        <v>0</v>
+      </c>
+      <c r="E10" s="237">
+        <v>0</v>
+      </c>
+      <c r="F10" s="237">
+        <v>0</v>
+      </c>
+      <c r="G10" s="237">
+        <v>0</v>
+      </c>
+      <c r="H10" s="237">
+        <v>0</v>
+      </c>
+      <c r="I10" s="237">
+        <v>0</v>
+      </c>
+      <c r="J10" s="237">
+        <v>0</v>
+      </c>
+      <c r="K10" s="237">
+        <v>0</v>
+      </c>
+      <c r="L10" s="237">
+        <v>0</v>
+      </c>
+      <c r="M10" s="237">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f>IF(N9=0,0,N9/12/N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="267"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P11" s="254"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="254"/>
+      <c r="P12" s="253"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="L13" s="253"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2</v>
+      </c>
+      <c r="J20" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AA51"/>
   <sheetViews>
@@ -14619,16 +16866,16 @@
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="394" t="s">
+      <c r="B1" s="395" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
-      <c r="G1" s="395"/>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
       <c r="K1" s="290"/>
       <c r="L1" s="291"/>
       <c r="M1" s="291"/>
@@ -14651,18 +16898,18 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="375" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
       <c r="K2" s="290"/>
       <c r="L2" s="263"/>
       <c r="M2" s="293"/>
@@ -14874,17 +17121,17 @@
       <c r="Y6" s="290"/>
     </row>
     <row r="7" spans="1:27" s="120" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="380"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
       <c r="J7" s="15"/>
       <c r="K7" s="294"/>
       <c r="L7" s="294"/>
@@ -15400,22 +17647,22 @@
       <c r="A26" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="396" t="s">
+      <c r="B26" s="397" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="397"/>
-      <c r="D26" s="398" t="s">
+      <c r="C26" s="398"/>
+      <c r="D26" s="399" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="397"/>
-      <c r="F26" s="398" t="s">
+      <c r="E26" s="398"/>
+      <c r="F26" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="397"/>
-      <c r="H26" s="398" t="s">
+      <c r="G26" s="398"/>
+      <c r="H26" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="399"/>
+      <c r="I26" s="400"/>
       <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:25" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -15671,22 +17918,22 @@
       <c r="A38" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="390" t="s">
+      <c r="B38" s="391" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="391"/>
-      <c r="D38" s="392" t="s">
+      <c r="C38" s="392"/>
+      <c r="D38" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392" t="s">
+      <c r="E38" s="392"/>
+      <c r="F38" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="391"/>
-      <c r="H38" s="392" t="s">
+      <c r="G38" s="392"/>
+      <c r="H38" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="393"/>
+      <c r="I38" s="394"/>
       <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -16088,1300 +18335,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0066"/>
-  </sheetPr>
-  <dimension ref="A1:X70"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="10" width="19.28515625" style="1"/>
-    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="19.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="400" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="308"/>
-      <c r="T1" s="308"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-    </row>
-    <row r="2" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="374" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="302"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-    </row>
-    <row r="3" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="288" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="288" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="288" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="288" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="288" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="288" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="301"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="310"/>
-      <c r="P3" s="308"/>
-      <c r="Q3" s="308"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="308"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-    </row>
-    <row r="4" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="311">
-        <f>SUM(B4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="312"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313"/>
-      <c r="L4" s="313"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="313"/>
-      <c r="P4" s="313"/>
-      <c r="Q4" s="314"/>
-      <c r="R4" s="308"/>
-      <c r="S4" s="308"/>
-      <c r="T4" s="308"/>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
-      <c r="X4" s="251"/>
-    </row>
-    <row r="5" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="288" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="315">
-        <f>SUM(B5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="309"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="317"/>
-      <c r="Q5" s="318"/>
-      <c r="R5" s="308"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="308"/>
-      <c r="U5" s="251"/>
-      <c r="V5" s="251"/>
-      <c r="W5" s="251"/>
-      <c r="X5" s="251"/>
-    </row>
-    <row r="6" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="288" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="315" t="e">
-        <f>H5/12/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="309"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="317"/>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="308"/>
-      <c r="S6" s="308"/>
-      <c r="T6" s="308"/>
-      <c r="U6" s="251"/>
-      <c r="V6" s="251"/>
-      <c r="W6" s="251"/>
-      <c r="X6" s="251"/>
-    </row>
-    <row r="7" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="314"/>
-      <c r="Q7" s="319"/>
-      <c r="R7" s="308"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="251"/>
-      <c r="W7" s="251"/>
-      <c r="X7" s="251"/>
-    </row>
-    <row r="8" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="311">
-        <f>SUM(B8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="309"/>
-      <c r="J8" s="320"/>
-      <c r="K8" s="321"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="319"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="251"/>
-      <c r="W8" s="251"/>
-      <c r="X8" s="251"/>
-    </row>
-    <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="315">
-        <f>SUM(B9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="309"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
-      <c r="M9" s="321"/>
-      <c r="N9" s="321"/>
-      <c r="O9" s="321"/>
-      <c r="P9" s="321"/>
-      <c r="Q9" s="308"/>
-      <c r="R9" s="308"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="251"/>
-      <c r="W9" s="251"/>
-      <c r="X9" s="251"/>
-    </row>
-    <row r="10" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="216" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="315" t="e">
-        <f>H9/12/H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="309"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="323"/>
-      <c r="L10" s="323"/>
-      <c r="M10" s="323"/>
-      <c r="N10" s="323"/>
-      <c r="O10" s="323"/>
-      <c r="P10" s="323"/>
-      <c r="Q10" s="302"/>
-      <c r="R10" s="302"/>
-      <c r="S10" s="302"/>
-      <c r="T10" s="301"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="277"/>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="277"/>
-      <c r="F11" s="277"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="324"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="323"/>
-      <c r="O11" s="323"/>
-      <c r="P11" s="323"/>
-      <c r="Q11" s="302"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="277"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="324"/>
-      <c r="I12" s="301"/>
-      <c r="J12" s="301"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="302"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="301"/>
-      <c r="T12" s="301"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="277"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="325"/>
-      <c r="M13" s="325"/>
-      <c r="N13" s="325"/>
-      <c r="O13" s="325"/>
-      <c r="P13" s="325"/>
-      <c r="Q13" s="302"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="301"/>
-      <c r="T13" s="301"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="301"/>
-      <c r="I14" s="301"/>
-      <c r="J14" s="301"/>
-      <c r="K14" s="301"/>
-      <c r="L14" s="301"/>
-      <c r="M14" s="301"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="301"/>
-      <c r="P14" s="301"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="301"/>
-      <c r="T14" s="301"/>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="304"/>
-      <c r="L15" s="304"/>
-      <c r="M15" s="304"/>
-      <c r="N15" s="304"/>
-      <c r="O15" s="304"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="304"/>
-      <c r="T15" s="304"/>
-    </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="260"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="260"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="260"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="260"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="260"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="37">
-        <v>100000</v>
-      </c>
-      <c r="C25" s="37">
-        <v>100000</v>
-      </c>
-      <c r="D25" s="37">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="39">
-        <f>B25</f>
-        <v>100000</v>
-      </c>
-      <c r="C27" s="39">
-        <f>C25</f>
-        <v>100000</v>
-      </c>
-      <c r="D27" s="39">
-        <f>D25</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="40">
-        <f>B27*2</f>
-        <v>200000</v>
-      </c>
-      <c r="C29" s="40">
-        <f>C27*2</f>
-        <v>200000</v>
-      </c>
-      <c r="D29" s="40">
-        <f>D27*2</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-    </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="39">
-        <v>2000</v>
-      </c>
-      <c r="C32" s="39">
-        <v>3000</v>
-      </c>
-      <c r="D32" s="39">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="44">
-        <v>4000</v>
-      </c>
-      <c r="C33" s="44">
-        <v>6000</v>
-      </c>
-      <c r="D33" s="44">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="260"/>
-      <c r="C34" s="260"/>
-      <c r="D34" s="260"/>
-    </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="287" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="372" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="372"/>
-      <c r="D35" s="373"/>
-    </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="47">
-        <v>5150</v>
-      </c>
-      <c r="C36" s="48">
-        <v>6440</v>
-      </c>
-      <c r="D36" s="49">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="50">
-        <v>6020</v>
-      </c>
-      <c r="C37" s="51">
-        <v>7730</v>
-      </c>
-      <c r="D37" s="52">
-        <v>9420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="50">
-        <v>7560</v>
-      </c>
-      <c r="C38" s="51">
-        <v>9720</v>
-      </c>
-      <c r="D38" s="52">
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="50">
-        <v>7700</v>
-      </c>
-      <c r="C39" s="51">
-        <v>9810</v>
-      </c>
-      <c r="D39" s="52">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="50">
-        <v>7810</v>
-      </c>
-      <c r="C40" s="51">
-        <v>9930</v>
-      </c>
-      <c r="D40" s="52">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="50">
-        <v>7940</v>
-      </c>
-      <c r="C41" s="51">
-        <v>10100</v>
-      </c>
-      <c r="D41" s="52">
-        <v>12230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="50">
-        <v>8100</v>
-      </c>
-      <c r="C42" s="51">
-        <v>10200</v>
-      </c>
-      <c r="D42" s="52">
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="53">
-        <v>9550</v>
-      </c>
-      <c r="C43" s="54">
-        <v>12390</v>
-      </c>
-      <c r="D43" s="55">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="372" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="372"/>
-      <c r="D44" s="373"/>
-    </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="47">
-        <v>464</v>
-      </c>
-      <c r="C45" s="48">
-        <v>580</v>
-      </c>
-      <c r="D45" s="49">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="50">
-        <v>542</v>
-      </c>
-      <c r="C46" s="51">
-        <v>696</v>
-      </c>
-      <c r="D46" s="52">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="50">
-        <v>680</v>
-      </c>
-      <c r="C47" s="51">
-        <v>875</v>
-      </c>
-      <c r="D47" s="52">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="50">
-        <v>693</v>
-      </c>
-      <c r="C48" s="51">
-        <v>883</v>
-      </c>
-      <c r="D48" s="52">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="50">
-        <v>703</v>
-      </c>
-      <c r="C49" s="51">
-        <v>894</v>
-      </c>
-      <c r="D49" s="52">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="50">
-        <v>715</v>
-      </c>
-      <c r="C50" s="51">
-        <v>909</v>
-      </c>
-      <c r="D50" s="52">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="50">
-        <v>729</v>
-      </c>
-      <c r="C51" s="51">
-        <v>918</v>
-      </c>
-      <c r="D51" s="52">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="53">
-        <v>860</v>
-      </c>
-      <c r="C52" s="54">
-        <v>1115</v>
-      </c>
-      <c r="D52" s="55">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="372" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="372"/>
-      <c r="D53" s="373"/>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="47">
-        <v>4893</v>
-      </c>
-      <c r="C54" s="48">
-        <v>6118</v>
-      </c>
-      <c r="D54" s="49">
-        <v>7363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="50">
-        <v>5719</v>
-      </c>
-      <c r="C55" s="51">
-        <v>7344</v>
-      </c>
-      <c r="D55" s="52">
-        <v>8949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="50">
-        <v>7182</v>
-      </c>
-      <c r="C56" s="51">
-        <v>9234</v>
-      </c>
-      <c r="D56" s="52">
-        <v>11258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="50">
-        <v>7315</v>
-      </c>
-      <c r="C57" s="51">
-        <v>9320</v>
-      </c>
-      <c r="D57" s="52">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="50">
-        <v>7420</v>
-      </c>
-      <c r="C58" s="51">
-        <v>9434</v>
-      </c>
-      <c r="D58" s="52">
-        <v>11495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="50">
-        <v>7543</v>
-      </c>
-      <c r="C59" s="51">
-        <v>9595</v>
-      </c>
-      <c r="D59" s="52">
-        <v>11619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="50">
-        <v>7695</v>
-      </c>
-      <c r="C60" s="51">
-        <v>9690</v>
-      </c>
-      <c r="D60" s="52">
-        <v>11780</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="53">
-        <v>9073</v>
-      </c>
-      <c r="C61" s="54">
-        <v>11771</v>
-      </c>
-      <c r="D61" s="55">
-        <v>14440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="372" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="372"/>
-      <c r="D62" s="373"/>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="47">
-        <v>440</v>
-      </c>
-      <c r="C63" s="48">
-        <v>551</v>
-      </c>
-      <c r="D63" s="49">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="50">
-        <v>515</v>
-      </c>
-      <c r="C64" s="51">
-        <v>661</v>
-      </c>
-      <c r="D64" s="52">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="50">
-        <v>646</v>
-      </c>
-      <c r="C65" s="51">
-        <v>831</v>
-      </c>
-      <c r="D65" s="52">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="50">
-        <v>658</v>
-      </c>
-      <c r="C66" s="51">
-        <v>839</v>
-      </c>
-      <c r="D66" s="52">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="50">
-        <v>668</v>
-      </c>
-      <c r="C67" s="51">
-        <v>849</v>
-      </c>
-      <c r="D67" s="52">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="50">
-        <v>679</v>
-      </c>
-      <c r="C68" s="51">
-        <v>864</v>
-      </c>
-      <c r="D68" s="52">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="50">
-        <v>693</v>
-      </c>
-      <c r="C69" s="51">
-        <v>872</v>
-      </c>
-      <c r="D69" s="52">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="53">
-        <v>817</v>
-      </c>
-      <c r="C70" s="54">
-        <v>1059</v>
-      </c>
-      <c r="D70" s="55">
-        <v>1300</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B44:D44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>